--- a/test_speeches/predictions/Coding_Differneces_118_AI.xlsx
+++ b/test_speeches/predictions/Coding_Differneces_118_AI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,64 +436,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sentence</t>
+          <t>sentence</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Simile</t>
+          <t>label</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Metaphor/Similie</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Rhetorical questions</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Stories / anecdotes</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Stories/Anecdotes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Contrasts</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lists / Repetition </t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Moral conviction</t>
+          <t>Lists</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment of the collective</t>
+          <t>Repetition</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ambitious goals / Setting high expectations</t>
+          <t>Moral_conviction</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Confidence in goals</t>
+          <t>Sentiment_of_the_collective</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Setting_high_expectations</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>I, Jonathan Tate   Swear, do solemnly swear   That I will faithfully support the Constitution of the United States   And the constitution of the state of Mississippi,   Obey the laws thereof.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>0</v>
       </c>
@@ -507,10 +508,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -519,20 +520,23 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>That I am not disqualified   From holding the office of Governor   Of the state of Mississippi.</t>
+          <t>I, Jonathan Tate   Swear, do solemnly swear   That I will faithfully support the Constitution of the United States   And the constitution of the state of Mississippi,   Obey the laws thereof.</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -547,29 +551,32 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>That I will faithfully discharge   The duties of the office   Upon.</t>
+          <t>That I am not disqualified   From holding the office of Governor   Of the state of Mississippi.</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -593,20 +600,23 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Which Im about to enter.</t>
+          <t>That I will faithfully discharge   The duties of the office   Upon.</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -624,22 +634,25 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>So help me God.</t>
+          <t>Which Im about to enter.</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -658,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -667,20 +680,23 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Thank you.</t>
+          <t>So help me God.</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -692,28 +708,31 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Thank you, Mr. Chief Justice, governor Bryant.</t>
+          <t>Thank you.</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -729,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -741,16 +760,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Governor Barber, thank you for being here.</t>
+          <t>Thank you, Mr. Chief Justice, governor Bryant.</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -778,16 +800,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lieutenant Governor Hoseman, speaker Gun President Pro Timm Kirby, speaker Pro, Tim White, members of the Mississippi Legislature, friends, family, and my fellow Mississippians.</t>
+          <t>Governor Barber, thank you for being here.</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -815,20 +840,23 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>It is my greatest honor to stand before you today and take this sacred oath.</t>
+          <t>Lieutenant Governor Hoseman, speaker Gun President Pro Timm Kirby, speaker Pro, Tim White, members of the Mississippi Legislature, friends, family, and my fellow Mississippians.</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -840,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -852,26 +880,29 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>I was just 29 years old when I first took an oath in this capital to serve the people of this great state.</t>
+          <t>It is my greatest honor to stand before you today and take this sacred oath.</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -880,29 +911,32 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The last sentence of that oath hit me hard on that day and it drives me still today, so hell me, God.</t>
+          <t>I was just 29 years old when I first took an oath in this capital to serve the people of this great state.</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -911,72 +945,78 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The call to action of the oath of office is not a commitment to be perfect.</t>
+          <t>The last sentence of that oath hit me hard on that day and it drives me still today, so hell me, God.</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>It is a commitment to seek the guidance of the Almighty God to compensate for our human frailty.</t>
+          <t>The call to action of the oath of office is not a commitment to be perfect.</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -988,32 +1028,35 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Our fore bearers in Mississippi governance, were not perfect, but they perfectly scripted this oath.</t>
+          <t>It is a commitment to seek the guidance of the Almighty God to compensate for our human frailty.</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1022,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1031,26 +1074,29 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>And as your governor, you have my commitment to seek Gods guidance in Gods will in all that I do.</t>
+          <t>Our fore bearers in Mississippi governance, were not perfect, but they perfectly scripted this oath.</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1062,32 +1108,35 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>We began this celebration on Sunday in the church where Ellie and I have worshiped since we were students in college.</t>
+          <t>And as your governor, you have my commitment to seek Gods guidance in Gods will in all that I do.</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1099,32 +1148,35 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>And to start this celebration we prayed not that we would be perfect, but that we would be faithful.</t>
+          <t>We began this celebration on Sunday in the church where Ellie and I have worshiped since we were students in college.</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1133,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1142,26 +1194,29 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Id like to take a few moments today to talk about the road ahead of us and about what is behind us.</t>
+          <t>And to start this celebration we prayed not that we would be perfect, but that we would be faithful.</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1170,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1179,22 +1234,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2019 was a tough campaign year.</t>
+          <t>Id like to take a few moments today to talk about the road ahead of us and about what is behind us.</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1204,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1222,20 +1280,23 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Some would say it was a full contact campaign, but that campaign is over.</t>
+          <t>2019 was a tough campaign year.</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1253,26 +1314,29 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Campaigns by necessity highlight differences.</t>
+          <t>Some would say it was a full contact campaign, but that campaign is over.</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1281,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1296,20 +1360,23 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Governing is about coming together.</t>
+          <t>Campaigns by necessity highlight differences.</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1321,32 +1388,35 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Here is my promise.</t>
+          <t>Governing is about coming together.</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1364,22 +1434,25 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>This will be an administration for all Mississippi, for all Mississippi.</t>
+          <t>Here is my promise.</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1395,10 +1468,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1407,20 +1480,23 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Now, that is our theme here today, and that will be our motto.</t>
+          <t>This will be an administration for all Mississippi, for all Mississippi.</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1432,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1444,20 +1520,23 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>That means our two priorities will be defending the loving culture that underpins our quality of life and growing the economy that lifts all of our families.</t>
+          <t>Now, that is our theme here today, and that will be our motto.</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1472,25 +1551,28 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>A culture of love and kinship has knitted Mississippi families together and tied them to each other for ages.</t>
+          <t>That means our two priorities will be defending the loving culture that underpins our quality of life and growing the economy that lifts all of our families.</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1509,32 +1591,35 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>It is what makes us special in a fast paced and transient world, I will defend that culture against the erosion that phrase Societies and I will work to make sure our state governments functions reflect the love we have for each other.</t>
+          <t>A culture of love and kinship has knitted Mississippi families together and tied them to each other for ages.</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1546,29 +1631,32 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>That will mean taking care of foster kids.</t>
+          <t>It is what makes us special in a fast paced and transient world, I will defend that culture against the erosion that phrase Societies and I will work to make sure our state governments functions reflect the love we have for each other.</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1580,32 +1668,35 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>That will mean getting special needs kids the special help they need.</t>
+          <t>That will mean taking care of foster kids.</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1626,23 +1717,26 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>And yes, it will mean cleaning up corrections to provide for the safety of our citizens and the human dignity of all within the system.</t>
+          <t>That will mean getting special needs kids the special help they need.</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1657,29 +1751,32 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>It will mean making sure state government is not causing more problems than it solves.</t>
+          <t>And yes, it will mean cleaning up corrections to provide for the safety of our citizens and the human dignity of all within the system.</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1688,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1697,26 +1794,29 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>And of course, the very best way to solve problems for families is to get them great jobs.</t>
+          <t>It will mean making sure state government is not causing more problems than it solves.</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1731,29 +1831,32 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>A growing vibrant economy solves more problems than any government giveaway ever could.</t>
+          <t>And of course, the very best way to solve problems for families is to get them great jobs.</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1762,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1771,26 +1874,29 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>A government program helps for a month, but a good paying career helps a family for generations.</t>
+          <t>A growing vibrant economy solves more problems than any government giveaway ever could.</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1808,26 +1914,29 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>It is my mission to spend every single day creating a climate where good careers are plentiful with every Mississippian prepared to pursue them.</t>
+          <t>A government program helps for a month, but a good paying career helps a family for generations.</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1839,28 +1948,31 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>To do this, we must raise our eye line and our expectations.</t>
+          <t>It is my mission to spend every single day creating a climate where good careers are plentiful with every Mississippian prepared to pursue them.</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1873,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1882,26 +1994,29 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>It must not be our ambition to simply keep up with Arkansas or Alabama.</t>
+          <t>To do this, we must raise our eye line and our expectations.</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1913,32 +2028,35 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>It must be our goal to compete with the very, for the very best jobs in all the world.</t>
+          <t>It must not be our ambition to simply keep up with Arkansas or Alabama.</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1950,32 +2068,35 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>We can do it.</t>
+          <t>It must be our goal to compete with the very, for the very best jobs in all the world.</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1990,29 +2111,32 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>It starts with workforce training.</t>
+          <t>We can do it.</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2036,16 +2160,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>I am committed to a history making increase in workforce training in our state, a skills-based system that will be the envy of the nation.</t>
+          <t>It starts with workforce training.</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2061,10 +2188,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2073,20 +2200,23 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>I am committed to elevating our public schools.</t>
+          <t>I am committed to a history making increase in workforce training in our state, a skills-based system that will be the envy of the nation.</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -2101,29 +2231,32 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>That means a pay raise for every teacher and a new mission to give us more national board certified teachers per capita than any state in the nation.</t>
+          <t>I am committed to elevating our public schools.</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2138,29 +2271,32 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Now, you will note that I did not say more than anyone in the mid-south.</t>
+          <t>That means a pay raise for every teacher and a new mission to give us more national board certified teachers per capita than any state in the nation.</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -2172,32 +2308,35 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
       <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>I did not say number one in the southeast.</t>
+          <t>Now, you will note that I did not say more than anyone in the mid-south.</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -2206,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2221,20 +2360,23 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>I said, number one in the nation.</t>
+          <t>I did not say number one in the southeast.</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -2255,23 +2397,26 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>It is a goal we can achieve and one worth achieving.</t>
+          <t>I said, number one in the nation.</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -2286,29 +2431,32 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>We have done it before and we can do it again.</t>
+          <t>It is a goal we can achieve and one worth achieving.</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -2326,26 +2474,29 @@
         <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
       </c>
       <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>While we rebuild the way we train our workforce from kindergarten beyond high school, we will travel the world to find the job creators who want to be our partners.</t>
+          <t>We have done it before and we can do it again.</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -2369,20 +2520,23 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>We will comb our state to find the companies that want to grow.</t>
+          <t>While we rebuild the way we train our workforce from kindergarten beyond high school, we will travel the world to find the job creators who want to be our partners.</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -2394,32 +2548,35 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
       </c>
       <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>We will lower barriers to innovation.</t>
+          <t>We will comb our state to find the companies that want to grow.</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -2437,26 +2594,29 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
       </c>
       <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>We will do everything in our power to make sure this is the easiest place in America to start and to grow a business.</t>
+          <t>We will lower barriers to innovation.</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -2474,26 +2634,29 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Now, you have heard governors talk about opportunity as long as we have had governors, but I want you to know that for me, it is not just a matter of politics.</t>
+          <t>We will do everything in our power to make sure this is the easiest place in America to start and to grow a business.</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -2502,13 +2665,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -2517,20 +2680,23 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>It is not just a matter of policies.</t>
+          <t>Now, you have heard governors talk about opportunity as long as we have had governors, but I want you to know that for me, it is not just a matter of politics.</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -2545,29 +2711,32 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Its personal.</t>
+          <t>It is not just a matter of policies.</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -2579,28 +2748,31 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>My dad is joining me in this chamber today, and that is more than fitting.</t>
+          <t>Its personal.</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2628,20 +2800,23 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>I would never have made it into any chamber without him or my mom and my brother.</t>
+          <t>My dad is joining me in this chamber today, and that is more than fitting.</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -2653,38 +2828,41 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
       </c>
       <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>My dad grew up as one of 11 kids in a two room house in Boga Chita, Mississippi.</t>
+          <t>I would never have made it into any chamber without him or my mom and my brother.</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2693,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2702,20 +2880,23 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>If youd looked at my dads circumstances, you never wouldve guessed what he wouldve accomplished.</t>
+          <t>My dad grew up as one of 11 kids in a two room house in Boga Chita, Mississippi.</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -2724,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2739,16 +2920,19 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>But then he started working on air conditioners.</t>
+          <t>If youd looked at my dads circumstances, you never wouldve guessed what he wouldve accomplished.</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2776,16 +2960,19 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>He worked hard and grew and built and grinded until he was one of the most respected people in his field in the entire state of Mississippi.</t>
+          <t>But then he started working on air conditioners.</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2801,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2813,20 +3000,23 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>His skills and his character changed his life, and that changed mine.</t>
+          <t>He worked hard and grew and built and grinded until he was one of the most respected people in his field in the entire state of Mississippi.</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -2838,35 +3028,38 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>It must be the mission of our government to open the doors of generational opportunity to more people in our state, north and south, man and woman, black and white.</t>
+          <t>His skills and his character changed his life, and that changed mine.</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -2875,38 +3068,41 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
       </c>
       <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>When Neely and I graduated from Milsaps, we both had opportunities to work in other states.</t>
+          <t>It must be the mission of our government to open the doors of generational opportunity to more people in our state, north and south, man and woman, black and white.</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -2915,29 +3111,32 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
       </c>
       <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Now I think we can all agree people tend to like her better, so she probably had more opportunities than I did.</t>
+          <t>When Neely and I graduated from Milsaps, we both had opportunities to work in other states.</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -2946,13 +3145,13 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -2961,20 +3160,23 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>We were way too young to be wise, but we did make one wise decision that has shaped our lives ever since.</t>
+          <t>Now I think we can all agree people tend to like her better, so she probably had more opportunities than I did.</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -2983,35 +3185,38 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Together as a young couple, we decided to stand our ground in Mississippi.</t>
+          <t>We were way too young to be wise, but we did make one wise decision that has shaped our lives ever since.</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -3023,32 +3228,35 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
       </c>
       <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>We decided, we decided we would get married.</t>
+          <t>Together as a young couple, we decided to stand our ground in Mississippi.</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -3057,35 +3265,38 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>We decided to pursue Mississippi careers.</t>
+          <t>We decided, we decided we would get married.</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -3097,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -3109,20 +3320,23 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>We decided we would raise Mississippi kids.</t>
+          <t>We decided to pursue Mississippi careers.</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -3140,26 +3354,29 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
       </c>
       <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>And then we decided we would work together to make Mississippi better.</t>
+          <t>We decided we would raise Mississippi kids.</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -3174,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -3183,20 +3400,23 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>I have never regretted it, and lets give a round of applause to Ellie for all shes put up with.</t>
+          <t>And then we decided we would work together to make Mississippi better.</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -3211,29 +3431,32 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
       </c>
       <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>No surprise, she gets the largest applause of the day.</t>
+          <t>I have never regretted it, and lets give a round of applause to Ellie for all shes put up with.</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -3251,22 +3474,25 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
       </c>
       <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>We have never regretted those decisions.</t>
+          <t>No surprise, she gets the largest applause of the day.</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3294,20 +3520,23 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>And now as governor, I will spare no effort to finish the job weve started.</t>
+          <t>We have never regretted those decisions.</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -3322,25 +3551,28 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>As state treasurer, I rode shotgun on economic development missions with the greatest salesman Mississippi has ever known.</t>
+          <t>And now as governor, I will spare no effort to finish the job weve started.</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3350,38 +3582,41 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
       </c>
       <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>As Lieutenant Governor I got to walk shoulder to shoulder with a great listener who can relate to every person in Mississippi.</t>
+          <t>As state treasurer, I rode shotgun on economic development missions with the greatest salesman Mississippi has ever known.</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -3390,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -3399,26 +3634,29 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
       </c>
       <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Governor Barbara and Governor Bryant, you have prepared me well and I thank you.</t>
+          <t>As Lieutenant Governor I got to walk shoulder to shoulder with a great listener who can relate to every person in Mississippi.</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -3427,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -3436,26 +3674,29 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
       </c>
       <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>The greatest preparation you gave me was the understanding that no governor does this job alone.</t>
+          <t>Governor Barbara and Governor Bryant, you have prepared me well and I thank you.</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -3470,29 +3711,32 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
       </c>
       <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Leadership is an attitude of common purpose.</t>
+          <t>The greatest preparation you gave me was the understanding that no governor does this job alone.</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -3504,32 +3748,35 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
       </c>
       <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>It is the product of solidarity.</t>
+          <t>Leadership is an attitude of common purpose.</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -3541,32 +3788,35 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
       </c>
       <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>It comes only when we all begin caring about each other more than ourselves.</t>
+          <t>It is the product of solidarity.</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -3581,29 +3831,32 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
       </c>
       <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>That kind of leadership requires a sense of mission, not just for our governor and not just for our legislature, but a sense of mission for all Mississippi.</t>
+          <t>It comes only when we all begin caring about each other more than ourselves.</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -3612,35 +3865,38 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
       </c>
       <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>I am asking you today to join me in that mission.</t>
+          <t>That kind of leadership requires a sense of mission, not just for our governor and not just for our legislature, but a sense of mission for all Mississippi.</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -3652,32 +3908,35 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>We must care about each other enough to overcome our differences.</t>
+          <t>I am asking you today to join me in that mission.</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -3689,32 +3948,35 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>We must be faithful to each other enough to outlast our shortcomings, and we must be committed to each other enough to raise our expectations.</t>
+          <t>We must care about each other enough to overcome our differences.</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -3732,32 +3994,35 @@
         <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>When I took that first oath of office in 2003, I did not know how long my service would last.</t>
+          <t>We must be faithful to each other enough to outlast our shortcomings, and we must be committed to each other enough to raise our expectations.</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3766,29 +4031,32 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
       </c>
       <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>All I knew is that you, the people of Mississippi, had demonstrated a faith in me that I might never be able to meet.</t>
+          <t>When I took that first oath of office in 2003, I did not know how long my service would last.</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -3797,35 +4065,38 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
       </c>
       <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>I have never underestimated your trust.</t>
+          <t>All I knew is that you, the people of Mississippi, had demonstrated a faith in me that I might never be able to meet.</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -3837,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3849,20 +4120,23 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>I have never forgotten the oath to pursue service with the help of our God, and I will wake up every day working to bring us together to make our state be all it can be.</t>
+          <t>I have never underestimated your trust.</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -3877,29 +4151,32 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
       </c>
       <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Work that will be done by all of Mississippi, for all of Mississippi.</t>
+          <t>I have never forgotten the oath to pursue service with the help of our God, and I will wake up every day working to bring us together to make our state be all it can be.</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -3911,32 +4188,35 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Thank you for your support and thank you for your prayers.</t>
+          <t>Work that will be done by all of Mississippi, for all of Mississippi.</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -3948,10 +4228,10 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -3960,20 +4240,23 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>God bless you.</t>
+          <t>Thank you for your support and thank you for your prayers.</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -3985,55 +4268,101 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
       </c>
       <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>God bless you.</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>God bless your families and make God bless the great state of Mississippi.</t>
         </is>
       </c>
-      <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
         <v>0</v>
       </c>
     </row>

--- a/test_speeches/predictions/Coding_Differneces_118_AI.xlsx
+++ b/test_speeches/predictions/Coding_Differneces_118_AI.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Similie</t>
+          <t>Metaphor/Simile</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Stories/Anecdotes</t>
+          <t>Stories / anecdotes</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -466,27 +466,27 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Lists</t>
+          <t xml:space="preserve">Lists / Repetition </t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Repetition</t>
+          <t>Moral conviction</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Moral_conviction</t>
+          <t>Sentiment of the collective</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment_of_the_collective</t>
+          <t>Ambitious goals / Setting high expectations</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Setting_high_expectations</t>
+          <t>Confidence in goals</t>
         </is>
       </c>
     </row>
